--- a/제출/데이터분석분야_퓨처스리그_홍수ZERO_GodBoost팀_추가제출파일/평가데이터/데이터분석분야_퓨처스리그_홍수ZERO_GodBoost팀_평가데이터.xlsx
+++ b/제출/데이터분석분야_퓨처스리그_홍수ZERO_GodBoost팀_추가제출파일/평가데이터/데이터분석분야_퓨처스리그_홍수ZERO_GodBoost팀_평가데이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Github\BigContest_Flood-ZERO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\Github\BigContest_Flood-ZERO\제출\데이터분석분야_퓨처스리그_홍수ZERO_GodBoost팀_추가제출파일\평가데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,6 +185,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -192,9 +195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,48 +516,48 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" customWidth="1"/>
-    <col min="4" max="4" width="6.09765625" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -573,11 +573,11 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
-        <v>151.39989460000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F3" s="4">
+        <v>161.75740329999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>26</v>
       </c>
@@ -593,11 +593,11 @@
       <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="7">
-        <v>184.9793627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F4" s="4">
+        <v>175.4448678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>26</v>
       </c>
@@ -613,11 +613,11 @@
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
-        <v>269.04465750000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" s="4">
+        <v>225.5672323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>26</v>
       </c>
@@ -633,11 +633,11 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
-        <v>466.77708730000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F6" s="4">
+        <v>337.32149609999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>26</v>
       </c>
@@ -653,11 +653,11 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
-        <v>553.60340169999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="4">
+        <v>480.61763000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -673,11 +673,11 @@
       <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
-        <v>711.99392250000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F8" s="4">
+        <v>667.5850653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>26</v>
       </c>
@@ -693,11 +693,11 @@
       <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
-        <v>732.63996650000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F9" s="4">
+        <v>812.67223239999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>26</v>
       </c>
@@ -713,11 +713,11 @@
       <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="F10" s="7">
-        <v>729.04729380000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F10" s="4">
+        <v>820.89320650000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>26</v>
       </c>
@@ -733,11 +733,11 @@
       <c r="E11" s="1">
         <v>14</v>
       </c>
-      <c r="F11" s="7">
-        <v>719.53820889999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="4">
+        <v>850.68861440000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>26</v>
       </c>
@@ -753,11 +753,11 @@
       <c r="E12" s="1">
         <v>15</v>
       </c>
-      <c r="F12" s="7">
-        <v>792.53471339999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="4">
+        <v>822.52220279999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>26</v>
       </c>
@@ -773,11 +773,11 @@
       <c r="E13" s="1">
         <v>16</v>
       </c>
-      <c r="F13" s="7">
-        <v>670.30034509999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F13" s="4">
+        <v>836.85525910000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>26</v>
       </c>
@@ -793,11 +793,11 @@
       <c r="E14" s="1">
         <v>17</v>
       </c>
-      <c r="F14" s="7">
-        <v>632.51800189999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F14" s="4">
+        <v>769.52858149999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -813,11 +813,11 @@
       <c r="E15" s="1">
         <v>18</v>
       </c>
-      <c r="F15" s="7">
-        <v>628.53325989999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F15" s="4">
+        <v>699.66514229999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>26</v>
       </c>
@@ -833,11 +833,11 @@
       <c r="E16" s="1">
         <v>19</v>
       </c>
-      <c r="F16" s="7">
-        <v>823.6891114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F16" s="4">
+        <v>887.43973670000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>26</v>
       </c>
@@ -853,11 +853,11 @@
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
-        <v>973.26843099999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="4">
+        <v>971.98509469999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>26</v>
       </c>
@@ -873,11 +873,11 @@
       <c r="E18" s="1">
         <v>21</v>
       </c>
-      <c r="F18" s="7">
-        <v>1064.385057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="4">
+        <v>1054.8676129999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>26</v>
       </c>
@@ -893,11 +893,11 @@
       <c r="E19" s="1">
         <v>22</v>
       </c>
-      <c r="F19" s="7">
-        <v>1113.883384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="4">
+        <v>1050.9436860000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>26</v>
       </c>
@@ -913,11 +913,11 @@
       <c r="E20" s="1">
         <v>23</v>
       </c>
-      <c r="F20" s="7">
-        <v>1197.8561179999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="4">
+        <v>1135.6928660000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>26</v>
       </c>
@@ -933,11 +933,11 @@
       <c r="E21" s="1">
         <v>24</v>
       </c>
-      <c r="F21" s="7">
-        <v>1492.6818020000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="4">
+        <v>1349.642443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>26</v>
       </c>
@@ -953,11 +953,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
-        <v>1598.9011800000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="4">
+        <v>1504.5372030000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>26</v>
       </c>
@@ -973,11 +973,11 @@
       <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
-        <v>1654.19697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="4">
+        <v>1617.070426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>26</v>
       </c>
@@ -993,11 +993,11 @@
       <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="7">
-        <v>2486.4006359999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="4">
+        <v>2019.3750399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>26</v>
       </c>
@@ -1013,11 +1013,11 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="7">
-        <v>2922.1860150000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F25" s="4">
+        <v>2242.88697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -1033,11 +1033,11 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="7">
-        <v>3205.7986639999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F26" s="4">
+        <v>2487.9133409999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1053,11 +1053,11 @@
       <c r="E27" s="1">
         <v>6</v>
       </c>
-      <c r="F27" s="7">
-        <v>3346.9847679999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F27" s="4">
+        <v>2817.0251090000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1073,11 +1073,11 @@
       <c r="E28" s="1">
         <v>7</v>
       </c>
-      <c r="F28" s="7">
-        <v>3904.6189810000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F28" s="4">
+        <v>3385.739904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -1093,11 +1093,11 @@
       <c r="E29" s="1">
         <v>8</v>
       </c>
-      <c r="F29" s="7">
-        <v>4580.3488139999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29" s="4">
+        <v>3735.0704959999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1113,11 +1113,11 @@
       <c r="E30" s="1">
         <v>9</v>
       </c>
-      <c r="F30" s="7">
-        <v>4937.2142320000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F30" s="4">
+        <v>3976.1973950000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -1133,11 +1133,11 @@
       <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="7">
-        <v>5018.8102879999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F31" s="4">
+        <v>4210.8111559999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -1153,11 +1153,11 @@
       <c r="E32" s="1">
         <v>11</v>
       </c>
-      <c r="F32" s="7">
-        <v>5142.6607880000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F32" s="4">
+        <v>4417.1921300000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -1173,11 +1173,11 @@
       <c r="E33" s="1">
         <v>12</v>
       </c>
-      <c r="F33" s="7">
-        <v>5123.2948130000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F33" s="4">
+        <v>4451.6801809999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>26</v>
       </c>
@@ -1193,11 +1193,11 @@
       <c r="E34" s="1">
         <v>13</v>
       </c>
-      <c r="F34" s="7">
-        <v>5384.419234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="4">
+        <v>4562.9129419999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>26</v>
       </c>
@@ -1213,11 +1213,11 @@
       <c r="E35" s="1">
         <v>14</v>
       </c>
-      <c r="F35" s="7">
-        <v>5811.1447200000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F35" s="4">
+        <v>4928.138567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>26</v>
       </c>
@@ -1233,11 +1233,11 @@
       <c r="E36" s="1">
         <v>15</v>
       </c>
-      <c r="F36" s="7">
-        <v>5808.7600730000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F36" s="4">
+        <v>4896.8600930000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>26</v>
       </c>
@@ -1253,11 +1253,11 @@
       <c r="E37" s="1">
         <v>16</v>
       </c>
-      <c r="F37" s="7">
-        <v>5815.5423300000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F37" s="4">
+        <v>4902.7909099999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>26</v>
       </c>
@@ -1273,11 +1273,11 @@
       <c r="E38" s="1">
         <v>17</v>
       </c>
-      <c r="F38" s="7">
-        <v>5701.4708389999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F38" s="4">
+        <v>4966.0637470000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>26</v>
       </c>
@@ -1293,11 +1293,11 @@
       <c r="E39" s="1">
         <v>18</v>
       </c>
-      <c r="F39" s="7">
-        <v>5532.7771089999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F39" s="4">
+        <v>4949.9347749999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>26</v>
       </c>
@@ -1313,11 +1313,11 @@
       <c r="E40" s="1">
         <v>19</v>
       </c>
-      <c r="F40" s="7">
-        <v>5230.2224059999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F40" s="4">
+        <v>4675.0708320000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>26</v>
       </c>
@@ -1333,11 +1333,11 @@
       <c r="E41" s="1">
         <v>20</v>
       </c>
-      <c r="F41" s="7">
-        <v>5260.6866900000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F41" s="4">
+        <v>4591.9546689999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>26</v>
       </c>
@@ -1353,11 +1353,11 @@
       <c r="E42" s="1">
         <v>21</v>
       </c>
-      <c r="F42" s="7">
-        <v>5048.8634240000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F42" s="4">
+        <v>4389.9597679999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>26</v>
       </c>
@@ -1373,11 +1373,11 @@
       <c r="E43" s="1">
         <v>22</v>
       </c>
-      <c r="F43" s="7">
-        <v>5012.317524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F43" s="4">
+        <v>4359.1122809999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
@@ -1393,11 +1393,11 @@
       <c r="E44" s="1">
         <v>23</v>
       </c>
-      <c r="F44" s="7">
-        <v>4948.2292820000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F44" s="4">
+        <v>4158.7259379999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>26</v>
       </c>
@@ -1413,11 +1413,11 @@
       <c r="E45" s="1">
         <v>24</v>
       </c>
-      <c r="F45" s="7">
-        <v>4983.4667769999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F45" s="4">
+        <v>4099.9533369999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>26</v>
       </c>
@@ -1433,11 +1433,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="7">
-        <v>4800.7558630000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F46" s="4">
+        <v>3998.8135430000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>26</v>
       </c>
@@ -1453,11 +1453,11 @@
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="7">
-        <v>4743.3093289999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F47" s="4">
+        <v>3810.541342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>26</v>
       </c>
@@ -1473,11 +1473,11 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="7">
-        <v>4683.751002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F48" s="4">
+        <v>3749.4307399999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>26</v>
       </c>
@@ -1493,11 +1493,11 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="7">
-        <v>4631.9955620000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F49" s="4">
+        <v>3707.0774630000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>26</v>
       </c>
@@ -1513,11 +1513,11 @@
       <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="7">
-        <v>4566.9308190000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F50" s="4">
+        <v>3694.0359760000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>26</v>
       </c>
@@ -1533,11 +1533,11 @@
       <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="F51" s="7">
-        <v>4414.0677900000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F51" s="4">
+        <v>3587.1819209999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>26</v>
       </c>
@@ -1553,11 +1553,11 @@
       <c r="E52" s="1">
         <v>7</v>
       </c>
-      <c r="F52" s="7">
-        <v>4349.8335079999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F52" s="4">
+        <v>3520.514486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>26</v>
       </c>
@@ -1573,11 +1573,11 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="7">
-        <v>4283.3002889999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F53" s="4">
+        <v>3424.1422539999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>26</v>
       </c>
@@ -1593,11 +1593,11 @@
       <c r="E54" s="1">
         <v>9</v>
       </c>
-      <c r="F54" s="7">
-        <v>4171.203861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F54" s="4">
+        <v>3322.2943380000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>26</v>
       </c>
@@ -1613,11 +1613,11 @@
       <c r="E55" s="1">
         <v>10</v>
       </c>
-      <c r="F55" s="7">
-        <v>4311.2872379999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F55" s="4">
+        <v>3159.4341370000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>26</v>
       </c>
@@ -1633,11 +1633,11 @@
       <c r="E56" s="1">
         <v>11</v>
       </c>
-      <c r="F56" s="7">
-        <v>3811.1508530000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F56" s="4">
+        <v>3135.5005930000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>26</v>
       </c>
@@ -1653,11 +1653,11 @@
       <c r="E57" s="1">
         <v>12</v>
       </c>
-      <c r="F57" s="7">
-        <v>2715.2518570000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F57" s="4">
+        <v>2754.4475379999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>26</v>
       </c>
@@ -1673,11 +1673,11 @@
       <c r="E58" s="1">
         <v>13</v>
       </c>
-      <c r="F58" s="7">
-        <v>2549.6312699999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F58" s="4">
+        <v>2489.5420650000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>26</v>
       </c>
@@ -1693,11 +1693,11 @@
       <c r="E59" s="1">
         <v>14</v>
       </c>
-      <c r="F59" s="7">
-        <v>2363.858381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F59" s="4">
+        <v>2233.643877</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>26</v>
       </c>
@@ -1713,11 +1713,11 @@
       <c r="E60" s="1">
         <v>15</v>
       </c>
-      <c r="F60" s="7">
-        <v>2275.2762349999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F60" s="4">
+        <v>2065.0659879999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>26</v>
       </c>
@@ -1733,11 +1733,11 @@
       <c r="E61" s="1">
         <v>16</v>
       </c>
-      <c r="F61" s="7">
-        <v>2194.8669279999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F61" s="4">
+        <v>1955.6898659999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>26</v>
       </c>
@@ -1753,11 +1753,11 @@
       <c r="E62" s="1">
         <v>17</v>
       </c>
-      <c r="F62" s="7">
-        <v>1983.509804</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F62" s="4">
+        <v>1823.821193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>26</v>
       </c>
@@ -1773,11 +1773,11 @@
       <c r="E63" s="1">
         <v>18</v>
       </c>
-      <c r="F63" s="7">
-        <v>1785.80124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F63" s="4">
+        <v>1644.42391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>26</v>
       </c>
@@ -1793,11 +1793,11 @@
       <c r="E64" s="1">
         <v>19</v>
       </c>
-      <c r="F64" s="7">
-        <v>1736.3482509999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F64" s="4">
+        <v>1551.348131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>26</v>
       </c>
@@ -1813,11 +1813,11 @@
       <c r="E65" s="1">
         <v>20</v>
       </c>
-      <c r="F65" s="7">
-        <v>1658.0089809999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F65" s="4">
+        <v>1493.9655780000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>26</v>
       </c>
@@ -1833,11 +1833,11 @@
       <c r="E66" s="1">
         <v>21</v>
       </c>
-      <c r="F66" s="7">
-        <v>1542.24953</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F66" s="4">
+        <v>1436.155906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>26</v>
       </c>
@@ -1853,11 +1853,11 @@
       <c r="E67" s="1">
         <v>22</v>
       </c>
-      <c r="F67" s="7">
-        <v>1326.0225049999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F67" s="4">
+        <v>1349.565323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>26</v>
       </c>
@@ -1873,11 +1873,11 @@
       <c r="E68" s="1">
         <v>23</v>
       </c>
-      <c r="F68" s="7">
-        <v>1186.785993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F68" s="4">
+        <v>1313.397528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>26</v>
       </c>
@@ -1893,11 +1893,11 @@
       <c r="E69" s="1">
         <v>24</v>
       </c>
-      <c r="F69" s="7">
-        <v>1110.4485010000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F69" s="4">
+        <v>1258.191178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>26</v>
       </c>
@@ -1913,11 +1913,11 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="7">
-        <v>1059.849882</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F70" s="4">
+        <v>1227.1804540000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>26</v>
       </c>
@@ -1933,11 +1933,11 @@
       <c r="E71" s="1">
         <v>2</v>
       </c>
-      <c r="F71" s="7">
-        <v>935.61173589999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F71" s="4">
+        <v>1162.6651199999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>26</v>
       </c>
@@ -1953,11 +1953,11 @@
       <c r="E72" s="1">
         <v>3</v>
       </c>
-      <c r="F72" s="7">
-        <v>859.94829900000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F72" s="4">
+        <v>1084.4105750000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>26</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="E73" s="1">
         <v>4</v>
       </c>
-      <c r="F73" s="7">
-        <v>856.92647480000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F73" s="4">
+        <v>1018.456538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>26</v>
       </c>
@@ -1993,11 +1993,11 @@
       <c r="E74" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="7">
-        <v>650.72408129999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F74" s="4">
+        <v>840.26929370000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>26</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="E75" s="1">
         <v>6</v>
       </c>
-      <c r="F75" s="7">
-        <v>621.99589330000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F75" s="4">
+        <v>803.32808009999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>26</v>
       </c>
@@ -2033,11 +2033,11 @@
       <c r="E76" s="1">
         <v>7</v>
       </c>
-      <c r="F76" s="7">
-        <v>638.37181929999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F76" s="4">
+        <v>765.99385740000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>26</v>
       </c>
@@ -2053,11 +2053,11 @@
       <c r="E77" s="1">
         <v>8</v>
       </c>
-      <c r="F77" s="7">
-        <v>592.69547599999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F77" s="4">
+        <v>690.442364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>26</v>
       </c>
@@ -2073,11 +2073,11 @@
       <c r="E78" s="1">
         <v>9</v>
       </c>
-      <c r="F78" s="7">
-        <v>570.73194850000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F78" s="4">
+        <v>629.17252269999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>26</v>
       </c>
@@ -2093,11 +2093,11 @@
       <c r="E79" s="1">
         <v>10</v>
       </c>
-      <c r="F79" s="7">
-        <v>565.41735459999995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F79" s="4">
+        <v>615.13402259999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>26</v>
       </c>
@@ -2113,11 +2113,11 @@
       <c r="E80" s="1">
         <v>11</v>
       </c>
-      <c r="F80" s="7">
-        <v>606.97131690000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F80" s="4">
+        <v>606.99334280000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>26</v>
       </c>
@@ -2133,11 +2133,11 @@
       <c r="E81" s="1">
         <v>12</v>
       </c>
-      <c r="F81" s="7">
-        <v>572.84940670000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F81" s="4">
+        <v>605.89575139999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>26</v>
       </c>
@@ -2153,11 +2153,11 @@
       <c r="E82" s="1">
         <v>13</v>
       </c>
-      <c r="F82" s="7">
-        <v>567.60679349999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F82" s="4">
+        <v>573.66470719999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>26</v>
       </c>
@@ -2173,11 +2173,11 @@
       <c r="E83" s="1">
         <v>14</v>
       </c>
-      <c r="F83" s="7">
-        <v>546.81079160000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F83" s="4">
+        <v>535.23374909999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>26</v>
       </c>
@@ -2193,11 +2193,11 @@
       <c r="E84" s="1">
         <v>15</v>
       </c>
-      <c r="F84" s="7">
-        <v>519.41602139999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F84" s="4">
+        <v>506.15251369999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>26</v>
       </c>
@@ -2213,11 +2213,11 @@
       <c r="E85" s="1">
         <v>16</v>
       </c>
-      <c r="F85" s="7">
-        <v>527.73939940000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F85" s="4">
+        <v>493.41831489999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>26</v>
       </c>
@@ -2233,11 +2233,11 @@
       <c r="E86" s="1">
         <v>17</v>
       </c>
-      <c r="F86" s="7">
-        <v>537.14138779999996</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F86" s="4">
+        <v>493.1102176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>26</v>
       </c>
@@ -2253,11 +2253,11 @@
       <c r="E87" s="1">
         <v>18</v>
       </c>
-      <c r="F87" s="7">
-        <v>532.41498039999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F87" s="4">
+        <v>488.22924940000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>26</v>
       </c>
@@ -2273,11 +2273,11 @@
       <c r="E88" s="1">
         <v>19</v>
       </c>
-      <c r="F88" s="7">
-        <v>554.84038250000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F88" s="4">
+        <v>496.36873869999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>26</v>
       </c>
@@ -2293,11 +2293,11 @@
       <c r="E89" s="1">
         <v>20</v>
       </c>
-      <c r="F89" s="7">
-        <v>544.46144839999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F89" s="4">
+        <v>510.68235570000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>26</v>
       </c>
@@ -2313,11 +2313,11 @@
       <c r="E90" s="1">
         <v>21</v>
       </c>
-      <c r="F90" s="7">
-        <v>545.11378590000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F90" s="4">
+        <v>507.9429662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>26</v>
       </c>
@@ -2333,11 +2333,11 @@
       <c r="E91" s="1">
         <v>22</v>
       </c>
-      <c r="F91" s="7">
-        <v>550.9589095</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F91" s="4">
+        <v>529.70889469999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>26</v>
       </c>
@@ -2353,11 +2353,11 @@
       <c r="E92" s="1">
         <v>23</v>
       </c>
-      <c r="F92" s="7">
-        <v>643.17191809999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F92" s="4">
+        <v>554.95696740000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>26</v>
       </c>
@@ -2373,11 +2373,11 @@
       <c r="E93" s="1">
         <v>24</v>
       </c>
-      <c r="F93" s="7">
-        <v>828.08976680000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F93" s="4">
+        <v>723.45679900000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>26</v>
       </c>
@@ -2393,11 +2393,11 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="7">
-        <v>976.6260747</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F94" s="4">
+        <v>891.01474329999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>26</v>
       </c>
@@ -2413,11 +2413,11 @@
       <c r="E95" s="1">
         <v>2</v>
       </c>
-      <c r="F95" s="7">
-        <v>1083.322187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F95" s="4">
+        <v>1103.5710300000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>26</v>
       </c>
@@ -2433,11 +2433,11 @@
       <c r="E96" s="1">
         <v>3</v>
       </c>
-      <c r="F96" s="7">
-        <v>1283.270814</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F96" s="4">
+        <v>1355.9843860000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>26</v>
       </c>
@@ -2453,11 +2453,11 @@
       <c r="E97" s="1">
         <v>4</v>
       </c>
-      <c r="F97" s="7">
-        <v>1476.0363219999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F97" s="4">
+        <v>1583.839686</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>26</v>
       </c>
@@ -2473,11 +2473,11 @@
       <c r="E98" s="1">
         <v>5</v>
       </c>
-      <c r="F98" s="7">
-        <v>1548.5056139999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F98" s="4">
+        <v>1605.1788349999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>26</v>
       </c>
@@ -2493,11 +2493,11 @@
       <c r="E99" s="1">
         <v>6</v>
       </c>
-      <c r="F99" s="7">
-        <v>1624.1931850000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F99" s="4">
+        <v>1648.923849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>26</v>
       </c>
@@ -2513,11 +2513,11 @@
       <c r="E100" s="1">
         <v>7</v>
       </c>
-      <c r="F100" s="7">
-        <v>1683.8036010000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F100" s="4">
+        <v>1715.7244539999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>26</v>
       </c>
@@ -2533,11 +2533,11 @@
       <c r="E101" s="1">
         <v>8</v>
       </c>
-      <c r="F101" s="7">
-        <v>1687.7709219999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F101" s="4">
+        <v>1753.482884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>26</v>
       </c>
@@ -2553,11 +2553,11 @@
       <c r="E102" s="1">
         <v>9</v>
       </c>
-      <c r="F102" s="7">
-        <v>1641.136229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F102" s="4">
+        <v>1715.558597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>26</v>
       </c>
@@ -2573,11 +2573,11 @@
       <c r="E103" s="1">
         <v>10</v>
       </c>
-      <c r="F103" s="7">
-        <v>1631.596096</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F103" s="4">
+        <v>1701.3503760000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>26</v>
       </c>
@@ -2593,11 +2593,11 @@
       <c r="E104" s="1">
         <v>11</v>
       </c>
-      <c r="F104" s="7">
-        <v>1613.6812299999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F104" s="4">
+        <v>1704.3436119999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>26</v>
       </c>
@@ -2613,11 +2613,11 @@
       <c r="E105" s="1">
         <v>12</v>
       </c>
-      <c r="F105" s="7">
-        <v>1592.147412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F105" s="4">
+        <v>1669.3502530000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>26</v>
       </c>
@@ -2633,11 +2633,11 @@
       <c r="E106" s="1">
         <v>13</v>
       </c>
-      <c r="F106" s="7">
-        <v>1588.412008</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F106" s="4">
+        <v>1672.685964</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>26</v>
       </c>
@@ -2653,11 +2653,11 @@
       <c r="E107" s="1">
         <v>14</v>
       </c>
-      <c r="F107" s="7">
-        <v>1606.123883</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F107" s="4">
+        <v>1725.2170189999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>26</v>
       </c>
@@ -2673,11 +2673,11 @@
       <c r="E108" s="1">
         <v>15</v>
       </c>
-      <c r="F108" s="7">
-        <v>1619.5115860000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F108" s="4">
+        <v>1736.3009420000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>26</v>
       </c>
@@ -2693,11 +2693,11 @@
       <c r="E109" s="1">
         <v>16</v>
       </c>
-      <c r="F109" s="7">
-        <v>1618.257441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F109" s="4">
+        <v>1756.3255979999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>26</v>
       </c>
@@ -2713,11 +2713,11 @@
       <c r="E110" s="1">
         <v>17</v>
       </c>
-      <c r="F110" s="7">
-        <v>1589.121631</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F110" s="4">
+        <v>1754.433974</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>26</v>
       </c>
@@ -2733,11 +2733,11 @@
       <c r="E111" s="1">
         <v>18</v>
       </c>
-      <c r="F111" s="7">
-        <v>1569.38177</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F111" s="4">
+        <v>1722.128203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>26</v>
       </c>
@@ -2753,11 +2753,11 @@
       <c r="E112" s="1">
         <v>19</v>
       </c>
-      <c r="F112" s="7">
-        <v>1515.6676729999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F112" s="4">
+        <v>1693.213598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>26</v>
       </c>
@@ -2773,11 +2773,11 @@
       <c r="E113" s="1">
         <v>20</v>
       </c>
-      <c r="F113" s="7">
-        <v>1442.6872800000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F113" s="4">
+        <v>1646.603539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>26</v>
       </c>
@@ -2793,11 +2793,11 @@
       <c r="E114" s="1">
         <v>21</v>
       </c>
-      <c r="F114" s="7">
-        <v>1403.3020690000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F114" s="4">
+        <v>1588.594685</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>26</v>
       </c>
@@ -2813,11 +2813,11 @@
       <c r="E115" s="1">
         <v>22</v>
       </c>
-      <c r="F115" s="7">
-        <v>1373.0209609999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F115" s="4">
+        <v>1612.213927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>26</v>
       </c>
@@ -2833,11 +2833,11 @@
       <c r="E116" s="1">
         <v>23</v>
       </c>
-      <c r="F116" s="7">
-        <v>1384.9057089999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F116" s="4">
+        <v>1616.297118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>26</v>
       </c>
@@ -2853,11 +2853,11 @@
       <c r="E117" s="1">
         <v>24</v>
       </c>
-      <c r="F117" s="7">
-        <v>1297.005623</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F117" s="4">
+        <v>1509.119774</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>26</v>
       </c>
@@ -2873,11 +2873,11 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="7">
-        <v>1291.3384840000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F118" s="4">
+        <v>1461.207232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>26</v>
       </c>
@@ -2893,11 +2893,11 @@
       <c r="E119" s="1">
         <v>2</v>
       </c>
-      <c r="F119" s="7">
-        <v>1219.7040420000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F119" s="4">
+        <v>1407.577207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>26</v>
       </c>
@@ -2913,11 +2913,11 @@
       <c r="E120" s="1">
         <v>3</v>
       </c>
-      <c r="F120" s="7">
-        <v>1176.2137560000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F120" s="4">
+        <v>1363.153718</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>26</v>
       </c>
@@ -2933,11 +2933,11 @@
       <c r="E121" s="1">
         <v>4</v>
       </c>
-      <c r="F121" s="7">
-        <v>1172.757069</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F121" s="4">
+        <v>1360.109068</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>26</v>
       </c>
@@ -2953,11 +2953,11 @@
       <c r="E122" s="1">
         <v>5</v>
       </c>
-      <c r="F122" s="7">
-        <v>1172.3765000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F122" s="4">
+        <v>1353.8515689999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>26</v>
       </c>
@@ -2973,11 +2973,11 @@
       <c r="E123" s="1">
         <v>6</v>
       </c>
-      <c r="F123" s="7">
-        <v>1094.509581</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F123" s="4">
+        <v>1295.6793479999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>26</v>
       </c>
@@ -2993,11 +2993,11 @@
       <c r="E124" s="1">
         <v>7</v>
       </c>
-      <c r="F124" s="7">
-        <v>1081.117346</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F124" s="4">
+        <v>1295.1507360000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>26</v>
       </c>
@@ -3013,11 +3013,11 @@
       <c r="E125" s="1">
         <v>8</v>
       </c>
-      <c r="F125" s="7">
-        <v>1065.547509</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F125" s="4">
+        <v>1276.826517</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>26</v>
       </c>
@@ -3033,11 +3033,11 @@
       <c r="E126" s="1">
         <v>9</v>
       </c>
-      <c r="F126" s="7">
-        <v>1060.4266230000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F126" s="4">
+        <v>1258.672325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>26</v>
       </c>
@@ -3053,11 +3053,11 @@
       <c r="E127" s="1">
         <v>10</v>
       </c>
-      <c r="F127" s="7">
-        <v>1061.226189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F127" s="4">
+        <v>1238.4755640000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>26</v>
       </c>
@@ -3073,11 +3073,11 @@
       <c r="E128" s="1">
         <v>11</v>
       </c>
-      <c r="F128" s="7">
-        <v>1067.8813560000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F128" s="4">
+        <v>1233.2899809999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>26</v>
       </c>
@@ -3093,11 +3093,11 @@
       <c r="E129" s="1">
         <v>12</v>
       </c>
-      <c r="F129" s="7">
-        <v>982.72716879999996</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F129" s="4">
+        <v>1156.6499759999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>26</v>
       </c>
@@ -3113,11 +3113,11 @@
       <c r="E130" s="1">
         <v>13</v>
       </c>
-      <c r="F130" s="7">
-        <v>962.77043579999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F130" s="4">
+        <v>1158.9969719999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>26</v>
       </c>
@@ -3133,11 +3133,11 @@
       <c r="E131" s="1">
         <v>14</v>
       </c>
-      <c r="F131" s="7">
-        <v>963.33335320000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F131" s="4">
+        <v>1157.6760449999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>26</v>
       </c>
@@ -3153,11 +3153,11 @@
       <c r="E132" s="1">
         <v>15</v>
       </c>
-      <c r="F132" s="7">
-        <v>930.37152639999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F132" s="4">
+        <v>1117.265269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>26</v>
       </c>
@@ -3173,11 +3173,11 @@
       <c r="E133" s="1">
         <v>16</v>
       </c>
-      <c r="F133" s="7">
-        <v>917.40281689999995</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F133" s="4">
+        <v>1088.3257209999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>26</v>
       </c>
@@ -3193,11 +3193,11 @@
       <c r="E134" s="1">
         <v>17</v>
       </c>
-      <c r="F134" s="7">
-        <v>859.35263899999995</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F134" s="4">
+        <v>1062.3213989999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>26</v>
       </c>
@@ -3213,11 +3213,11 @@
       <c r="E135" s="1">
         <v>18</v>
       </c>
-      <c r="F135" s="7">
-        <v>782.79077670000004</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F135" s="4">
+        <v>1016.205316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>26</v>
       </c>
@@ -3233,11 +3233,11 @@
       <c r="E136" s="1">
         <v>19</v>
       </c>
-      <c r="F136" s="7">
-        <v>769.85757450000006</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F136" s="4">
+        <v>956.80187390000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>26</v>
       </c>
@@ -3253,11 +3253,11 @@
       <c r="E137" s="1">
         <v>20</v>
       </c>
-      <c r="F137" s="7">
-        <v>739.34304380000003</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F137" s="4">
+        <v>895.43819150000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>26</v>
       </c>
@@ -3273,11 +3273,11 @@
       <c r="E138" s="1">
         <v>21</v>
       </c>
-      <c r="F138" s="7">
-        <v>740.54229310000005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F138" s="4">
+        <v>888.06679210000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>26</v>
       </c>
@@ -3293,11 +3293,11 @@
       <c r="E139" s="1">
         <v>22</v>
       </c>
-      <c r="F139" s="7">
-        <v>714.32548080000004</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F139" s="4">
+        <v>869.81920339999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>26</v>
       </c>
@@ -3313,11 +3313,11 @@
       <c r="E140" s="1">
         <v>23</v>
       </c>
-      <c r="F140" s="7">
-        <v>684.38674040000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F140" s="4">
+        <v>836.94523860000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>26</v>
       </c>
@@ -3333,11 +3333,11 @@
       <c r="E141" s="1">
         <v>24</v>
       </c>
-      <c r="F141" s="7">
-        <v>646.43286869999997</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F141" s="4">
+        <v>811.74402069999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>26</v>
       </c>
@@ -3353,11 +3353,11 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="7">
-        <v>581.1868978</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F142" s="4">
+        <v>744.11577550000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>26</v>
       </c>
@@ -3373,11 +3373,11 @@
       <c r="E143" s="1">
         <v>2</v>
       </c>
-      <c r="F143" s="7">
-        <v>577.08985110000003</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F143" s="4">
+        <v>717.98385719999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>26</v>
       </c>
@@ -3393,11 +3393,11 @@
       <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F144" s="7">
-        <v>560.05608219999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F144" s="4">
+        <v>678.25078150000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>26</v>
       </c>
@@ -3413,11 +3413,11 @@
       <c r="E145" s="1">
         <v>4</v>
       </c>
-      <c r="F145" s="7">
-        <v>550.53117499999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F145" s="4">
+        <v>673.5095513</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>26</v>
       </c>
@@ -3433,11 +3433,11 @@
       <c r="E146" s="1">
         <v>5</v>
       </c>
-      <c r="F146" s="7">
-        <v>548.69737850000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F146" s="4">
+        <v>661.3125215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>26</v>
       </c>
@@ -3453,11 +3453,11 @@
       <c r="E147" s="1">
         <v>6</v>
       </c>
-      <c r="F147" s="7">
-        <v>563.10556059999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F147" s="4">
+        <v>651.6057366</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>26</v>
       </c>
@@ -3473,11 +3473,11 @@
       <c r="E148" s="1">
         <v>7</v>
       </c>
-      <c r="F148" s="7">
-        <v>533.72426910000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F148" s="4">
+        <v>632.20894569999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>26</v>
       </c>
@@ -3493,11 +3493,11 @@
       <c r="E149" s="1">
         <v>8</v>
       </c>
-      <c r="F149" s="7">
-        <v>514.32464749999997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F149" s="4">
+        <v>601.13948110000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>26</v>
       </c>
@@ -3513,11 +3513,11 @@
       <c r="E150" s="1">
         <v>9</v>
       </c>
-      <c r="F150" s="7">
-        <v>504.60618390000002</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F150" s="4">
+        <v>588.90355839999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>26</v>
       </c>
@@ -3533,11 +3533,11 @@
       <c r="E151" s="1">
         <v>10</v>
       </c>
-      <c r="F151" s="7">
-        <v>493.29056880000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F151" s="4">
+        <v>577.94248319999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>26</v>
       </c>
@@ -3553,11 +3553,11 @@
       <c r="E152" s="1">
         <v>11</v>
       </c>
-      <c r="F152" s="7">
-        <v>496.43330700000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F152" s="4">
+        <v>571.87947650000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>26</v>
       </c>
@@ -3573,11 +3573,11 @@
       <c r="E153" s="1">
         <v>12</v>
       </c>
-      <c r="F153" s="7">
-        <v>484.2369731</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F153" s="4">
+        <v>558.12080660000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>26</v>
       </c>
@@ -3593,11 +3593,11 @@
       <c r="E154" s="1">
         <v>13</v>
       </c>
-      <c r="F154" s="7">
-        <v>481.64938219999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F154" s="4">
+        <v>555.52389960000005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>26</v>
       </c>
@@ -3613,11 +3613,11 @@
       <c r="E155" s="1">
         <v>14</v>
       </c>
-      <c r="F155" s="7">
-        <v>476.2867827</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F155" s="4">
+        <v>551.39413079999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>26</v>
       </c>
@@ -3633,11 +3633,11 @@
       <c r="E156" s="1">
         <v>15</v>
       </c>
-      <c r="F156" s="7">
-        <v>475.19573539999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F156" s="4">
+        <v>541.84237199999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>26</v>
       </c>
@@ -3653,11 +3653,11 @@
       <c r="E157" s="1">
         <v>16</v>
       </c>
-      <c r="F157" s="7">
-        <v>455.41949579999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F157" s="4">
+        <v>536.43677849999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>26</v>
       </c>
@@ -3673,11 +3673,11 @@
       <c r="E158" s="1">
         <v>17</v>
       </c>
-      <c r="F158" s="7">
-        <v>414.27765690000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F158" s="4">
+        <v>514.53708610000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>26</v>
       </c>
@@ -3693,11 +3693,11 @@
       <c r="E159" s="1">
         <v>18</v>
       </c>
-      <c r="F159" s="7">
-        <v>414.27765690000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F159" s="4">
+        <v>512.64590899999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>26</v>
       </c>
@@ -3713,11 +3713,11 @@
       <c r="E160" s="1">
         <v>19</v>
       </c>
-      <c r="F160" s="7">
-        <v>410.14460600000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F160" s="4">
+        <v>508.23204550000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>26</v>
       </c>
@@ -3733,11 +3733,11 @@
       <c r="E161" s="1">
         <v>20</v>
       </c>
-      <c r="F161" s="7">
-        <v>408.32059859999998</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F161" s="4">
+        <v>509.10061159999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>26</v>
       </c>
@@ -3753,8 +3753,8 @@
       <c r="E162" s="1">
         <v>21</v>
       </c>
-      <c r="F162" s="7">
-        <v>408.32059859999998</v>
+      <c r="F162" s="4">
+        <v>509.10061159999998</v>
       </c>
     </row>
   </sheetData>
